--- a/notebooks/mkappa/verification_data/Rem20/Abbildung_4-9/rem18_4-9.xlsx
+++ b/notebooks/mkappa/verification_data/Rem20/Abbildung_4-9/rem18_4-9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IMB\PyCharm_workspace\bmcs_cross_section\notebooks\mkappa\verification_data\Rem20\Abbildung_4-9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IMB\PyCharm_workspace\bmcs_cross_section\notebooks\mkappa\verification_data\rem20\Abbildung_4-9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDECFE4-F3E0-44C3-B21E-FFF119BB4B6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0FEC5E-1FBF-4404-A33B-CDF621EEDCF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F14F4C78-6418-471D-B0D9-8A16E22AACAF}"/>
   </bookViews>
@@ -34,21 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>mean</t>
+    <t>mean_k</t>
   </si>
   <si>
-    <t>lower margin</t>
+    <t>mean_m</t>
   </si>
   <si>
-    <t>upper margin</t>
+    <t>low_k</t>
   </si>
   <si>
-    <t>k</t>
+    <t>low_m</t>
   </si>
   <si>
-    <t>m</t>
+    <t>high_k</t>
+  </si>
+  <si>
+    <t>high_m</t>
   </si>
 </sst>
 </file>
@@ -87,12 +90,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -414,1201 +413,1077 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7299FF-96B6-464A-BDE4-D88D26FEF539}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>3.1578947368421053E-4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B3" s="2">
         <v>0.9882352941176471</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4">
+      <c r="C3" s="2">
         <v>9.4736842105263154E-4</v>
       </c>
-      <c r="E4" s="4">
+      <c r="D3" s="2">
         <v>0.82352941176470584</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4">
+      <c r="E3" s="2">
         <v>6.3157894736842106E-4</v>
       </c>
-      <c r="H4" s="4">
+      <c r="F3" s="2">
         <v>1.4274509803921569</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>1.2631578947368421E-3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B4" s="2">
         <v>1.3725490196078431</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4">
+      <c r="C4" s="2">
         <v>2.2105263157894735E-3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="D4" s="2">
         <v>1.2627450980392156</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4">
+      <c r="E4" s="2">
         <v>1.8947368421052631E-3</v>
       </c>
-      <c r="H5" s="4">
+      <c r="F4" s="2">
         <v>2.1686274509803924</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>1.8947368421052631E-3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B5" s="2">
         <v>1.7019607843137254</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4">
+      <c r="C5" s="2">
         <v>2.8421052631578949E-3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="D5" s="2">
         <v>1.5647058823529412</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4">
+      <c r="E5" s="2">
         <v>2.5263157894736842E-3</v>
       </c>
-      <c r="H6" s="4">
+      <c r="F5" s="2">
         <v>2.003921568627451</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>3.1578947368421048E-3</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B6" s="2">
         <v>1.9490196078431374</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4">
+      <c r="C6" s="2">
         <v>3.4736842105263155E-3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="D6" s="2">
         <v>1.7568627450980392</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4">
+      <c r="E6" s="2">
         <v>7.263157894736842E-3</v>
       </c>
-      <c r="H7" s="4">
+      <c r="F6" s="2">
         <v>2.9098039215686278</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>4.4210526315789471E-3</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B7" s="2">
         <v>2.1411764705882357</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4">
+      <c r="C7" s="2">
         <v>4.4210526315789471E-3</v>
       </c>
-      <c r="E8" s="4">
+      <c r="D7" s="2">
         <v>1.7294117647058824</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4">
+      <c r="E7" s="2">
         <v>7.5789473684210523E-3</v>
       </c>
-      <c r="H8" s="4">
+      <c r="F7" s="2">
         <v>2.7450980392156863</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>5.3684210526315787E-3</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B8" s="2">
         <v>2.3058823529411763</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4">
+      <c r="C8" s="2">
         <v>5.6842105263157899E-3</v>
       </c>
-      <c r="E9" s="4">
+      <c r="D8" s="2">
         <v>2.1137254901960785</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4">
+      <c r="E8" s="2">
         <v>7.8947368421052617E-3</v>
       </c>
-      <c r="H9" s="4">
+      <c r="F8" s="2">
         <v>2.6901960784313728</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>6.9473684210526309E-3</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B9" s="2">
         <v>2.552941176470588</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4">
+      <c r="C9" s="2">
         <v>7.263157894736842E-3</v>
       </c>
-      <c r="E10" s="4">
+      <c r="D9" s="2">
         <v>2.003921568627451</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4">
+      <c r="E9" s="2">
         <v>9.1578947368421044E-3</v>
       </c>
-      <c r="H10" s="4">
+      <c r="F9" s="2">
         <v>2.9647058823529413</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>7.5789473684210523E-3</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B10" s="2">
         <v>2.4705882352941178</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4">
+      <c r="C10" s="2">
         <v>1.0736842105263157E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="D10" s="2">
         <v>2.607843137254902</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4">
+      <c r="E10" s="2">
         <v>1.0421052631578947E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="F10" s="2">
         <v>3.1568627450980391</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>8.8421052631578942E-3</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B11" s="2">
         <v>2.607843137254902</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4">
+      <c r="C11" s="2">
         <v>1.2315789473684211E-2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="D11" s="2">
         <v>2.7450980392156863</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4">
+      <c r="E11" s="2">
         <v>1.2315789473684211E-2</v>
       </c>
-      <c r="H12" s="4">
+      <c r="F11" s="2">
         <v>3.4039215686274509</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>9.4736842105263147E-3</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B12" s="2">
         <v>2.7725490196078431</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4">
+      <c r="C12" s="2">
         <v>1.3263157894736841E-2</v>
       </c>
-      <c r="E13" s="4">
+      <c r="D12" s="2">
         <v>2.6352941176470588</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4">
+      <c r="E12" s="2">
         <v>1.2947368421052631E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="F12" s="2">
         <v>3.0470588235294116</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>1.0736842105263157E-2</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B13" s="2">
         <v>2.8823529411764706</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4">
+      <c r="C13" s="2">
         <v>1.6421052631578947E-2</v>
       </c>
-      <c r="E14" s="4">
+      <c r="D13" s="2">
         <v>2.9647058823529413</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4">
+      <c r="E13" s="2">
         <v>1.7684210526315788E-2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="F13" s="2">
         <v>3.4588235294117649</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B14" s="2">
         <v>2.9921568627450981</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4">
+      <c r="C14" s="2">
         <v>1.7052631578947368E-2</v>
       </c>
-      <c r="E15" s="4">
+      <c r="D14" s="2">
         <v>2.827450980392157</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4">
+      <c r="E14" s="2">
         <v>1.8315789473684209E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="F14" s="2">
         <v>3.2941176470588234</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>1.2947368421052631E-2</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B15" s="2">
         <v>2.9098039215686278</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4">
+      <c r="C15" s="2">
         <v>1.926315789473684E-2</v>
       </c>
-      <c r="E16" s="4">
+      <c r="D15" s="2">
         <v>3.0196078431372548</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4">
+      <c r="E15" s="2">
         <v>1.8631578947368423E-2</v>
       </c>
-      <c r="H16" s="4">
+      <c r="F15" s="2">
         <v>3.2117647058823526</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>1.2947368421052631E-2</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B16" s="2">
         <v>2.8000000000000003</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4">
+      <c r="C16" s="2">
         <v>2.1473684210526315E-2</v>
       </c>
-      <c r="E17" s="4">
+      <c r="D16" s="2">
         <v>3.1294117647058823</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4">
+      <c r="E16" s="2">
         <v>2.0210526315789474E-2</v>
       </c>
-      <c r="H17" s="4">
+      <c r="F16" s="2">
         <v>3.3215686274509801</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>1.4526315789473684E-2</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B17" s="2">
         <v>3.0196078431372548</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4">
+      <c r="C17" s="2">
         <v>2.2105263157894735E-2</v>
       </c>
-      <c r="E18" s="4">
+      <c r="D17" s="2">
         <v>2.9372549019607845</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4">
+      <c r="E17" s="2">
         <v>2.1157894736842105E-2</v>
       </c>
-      <c r="H18" s="4">
+      <c r="F17" s="2">
         <v>3.2666666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>1.7368421052631578E-2</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B18" s="2">
         <v>3.2666666666666666</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4">
+      <c r="C18" s="2">
         <v>2.5894736842105262E-2</v>
       </c>
-      <c r="E19" s="4">
+      <c r="D18" s="2">
         <v>3.2392156862745098</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="4">
+      <c r="E18" s="2">
         <v>2.5263157894736838E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="F18" s="2">
         <v>3.5960784313725487</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>1.8315789473684209E-2</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B19" s="2">
         <v>3.0745098039215684</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4">
+      <c r="C19" s="2">
         <v>2.6842105263157893E-2</v>
       </c>
-      <c r="E20" s="4">
+      <c r="D19" s="2">
         <v>3.1294117647058823</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4">
+      <c r="E19" s="2">
         <v>2.5894736842105262E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="F19" s="2">
         <v>3.5137254901960784</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>2.0526315789473684E-2</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B20" s="2">
         <v>3.1568627450980391</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4">
+      <c r="C20" s="2">
         <v>3.0947368421052633E-2</v>
       </c>
-      <c r="E21" s="4">
+      <c r="D20" s="2">
         <v>3.4862745098039216</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4">
+      <c r="E20" s="2">
         <v>2.8105263157894737E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="F20" s="2">
         <v>3.5411764705882351</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>2.2105263157894735E-2</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B21" s="2">
         <v>3.3215686274509801</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4">
+      <c r="C21" s="2">
         <v>3.3157894736842108E-2</v>
       </c>
-      <c r="E22" s="4">
+      <c r="D21" s="2">
         <v>3.4862745098039216</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4">
+      <c r="E21" s="2">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="H22" s="4">
+      <c r="F21" s="2">
         <v>3.8431372549019613</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>2.2736842105263159E-2</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B22" s="2">
         <v>3.2666666666666666</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4">
+      <c r="C22" s="2">
         <v>3.505263157894737E-2</v>
       </c>
-      <c r="E23" s="4">
+      <c r="D22" s="2">
         <v>3.3490196078431373</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4">
+      <c r="E22" s="2">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="H23" s="4">
+      <c r="F22" s="2">
         <v>3.7607843137254902</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>2.4315789473684207E-2</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B23" s="2">
         <v>3.3764705882352941</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="4">
+      <c r="C23" s="2">
         <v>3.6631578947368418E-2</v>
       </c>
-      <c r="E24" s="4">
+      <c r="D23" s="2">
         <v>3.3215686274509801</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4">
+      <c r="E23" s="2">
         <v>3.978947368421052E-2</v>
       </c>
-      <c r="H24" s="4">
+      <c r="F23" s="2">
         <v>3.9529411764705884</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>2.4631578947368421E-2</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B24" s="2">
         <v>3.3215686274509801</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4">
+      <c r="C24" s="2">
         <v>3.8526315789473679E-2</v>
       </c>
-      <c r="E25" s="4">
+      <c r="D24" s="2">
         <v>3.5411764705882351</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="4">
+      <c r="E24" s="2">
         <v>4.0105263157894734E-2</v>
       </c>
-      <c r="H25" s="4">
+      <c r="F24" s="2">
         <v>3.7882352941176469</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
         <v>2.6526315789473683E-2</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B25" s="2">
         <v>3.4313725490196076</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="4">
+      <c r="C25" s="2">
         <v>4.0105263157894734E-2</v>
       </c>
-      <c r="E26" s="4">
+      <c r="D25" s="2">
         <v>3.6235294117647063</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4">
+      <c r="E25" s="2">
         <v>4.1684210526315789E-2</v>
       </c>
-      <c r="H26" s="4">
+      <c r="F25" s="2">
         <v>3.8705882352941181</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>2.8105263157894737E-2</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B26" s="2">
         <v>3.3764705882352941</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="4">
+      <c r="C26" s="2">
         <v>4.2315789473684209E-2</v>
       </c>
-      <c r="E27" s="4">
+      <c r="D26" s="2">
         <v>3.6509803921568631</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4">
+      <c r="E26" s="2">
         <v>4.2631578947368416E-2</v>
       </c>
-      <c r="H27" s="4">
+      <c r="F26" s="2">
         <v>3.8431372549019613</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
         <v>3.0947368421052633E-2</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B27" s="2">
         <v>3.5960784313725487</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="4">
+      <c r="C27" s="2">
         <v>4.5157894736842105E-2</v>
       </c>
-      <c r="E28" s="4">
+      <c r="D27" s="2">
         <v>3.6235294117647063</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4">
+      <c r="E27" s="2">
         <v>4.4842105263157891E-2</v>
       </c>
-      <c r="H28" s="4">
+      <c r="F27" s="2">
         <v>3.9803921568627452</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>3.2210526315789474E-2</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B28" s="2">
         <v>3.5960784313725487</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="4">
+      <c r="C28" s="2">
         <v>4.6421052631578946E-2</v>
       </c>
-      <c r="E29" s="4">
+      <c r="D28" s="2">
         <v>3.5411764705882351</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4">
+      <c r="E28" s="2">
         <v>4.6421052631578946E-2</v>
       </c>
-      <c r="H29" s="4">
+      <c r="F28" s="2">
         <v>3.8980392156862749</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>3.4421052631578949E-2</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B29" s="2">
         <v>3.7333333333333334</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="4">
+      <c r="C29" s="2">
         <v>4.9894736842105263E-2</v>
       </c>
-      <c r="E30" s="4">
+      <c r="D29" s="2">
         <v>3.7607843137254902</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="4">
+      <c r="E29" s="2">
         <v>4.736842105263158E-2</v>
       </c>
-      <c r="H30" s="4">
+      <c r="F29" s="2">
         <v>4.0627450980392164</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>3.7263157894736845E-2</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B30" s="2">
         <v>3.6235294117647063</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="4">
+      <c r="C30" s="2">
         <v>5.1789473684210524E-2</v>
       </c>
-      <c r="E31" s="4">
+      <c r="D30" s="2">
         <v>3.7607843137254902</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="4">
+      <c r="E30" s="2">
         <v>4.8315789473684208E-2</v>
       </c>
-      <c r="H31" s="4">
+      <c r="F30" s="2">
         <v>3.9529411764705884</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
         <v>3.8842105263157893E-2</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B31" s="2">
         <v>3.6784313725490199</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="4">
+      <c r="C31" s="2">
         <v>5.3684210526315786E-2</v>
       </c>
-      <c r="E32" s="4">
+      <c r="D31" s="2">
         <v>3.8705882352941181</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="4">
+      <c r="E31" s="2">
         <v>5.1157894736842104E-2</v>
       </c>
-      <c r="H32" s="4">
+      <c r="F31" s="2">
         <v>4.1176470588235299</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
         <v>3.978947368421052E-2</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B32" s="2">
         <v>3.7333333333333334</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="4">
+      <c r="C32" s="2">
         <v>5.5894736842105261E-2</v>
       </c>
-      <c r="E33" s="4">
+      <c r="D32" s="2">
         <v>3.9803921568627452</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="4">
+      <c r="E32" s="2">
         <v>5.2421052631578952E-2</v>
       </c>
-      <c r="H33" s="4">
+      <c r="F32" s="2">
         <v>4.0352941176470587</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
         <v>4.0736842105263155E-2</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B33" s="2">
         <v>3.6784313725490199</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="4">
+      <c r="C33" s="2">
         <v>5.7473684210526316E-2</v>
       </c>
-      <c r="E34" s="4">
+      <c r="D33" s="2">
         <v>3.7882352941176469</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="4">
+      <c r="E33" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="H34" s="4">
+      <c r="F33" s="2">
         <v>4.1450980392156866</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
         <v>4.2315789473684209E-2</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B34" s="2">
         <v>3.7607843137254902</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="4">
+      <c r="C34" s="2">
         <v>6.4736842105263162E-2</v>
       </c>
-      <c r="E35" s="4">
+      <c r="D34" s="2">
         <v>4.0627450980392164</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="4">
+      <c r="E34" s="2">
         <v>5.4315789473684213E-2</v>
       </c>
-      <c r="H35" s="4">
+      <c r="F34" s="2">
         <v>4.0352941176470587</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
         <v>4.3263157894736844E-2</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B35" s="2">
         <v>3.8156862745098037</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="4">
+      <c r="C35" s="2">
         <v>7.1052631578947353E-2</v>
       </c>
-      <c r="E36" s="4">
+      <c r="D35" s="2">
         <v>4.2823529411764714</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="4">
+      <c r="E35" s="2">
         <v>5.6526315789473681E-2</v>
       </c>
-      <c r="H36" s="4">
+      <c r="F35" s="2">
         <v>4.2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
         <v>4.4842105263157891E-2</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B36" s="2">
         <v>3.8431372549019613</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="4">
+      <c r="C36" s="2">
         <v>7.3263157894736836E-2</v>
       </c>
-      <c r="E37" s="4">
+      <c r="D36" s="2">
         <v>4.2274509803921569</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="4">
+      <c r="E36" s="2">
         <v>5.7473684210526316E-2</v>
       </c>
-      <c r="H37" s="4">
+      <c r="F36" s="2">
         <v>4.2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
         <v>4.5789473684210526E-2</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B37" s="2">
         <v>3.8705882352941181</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="4">
+      <c r="C37" s="2">
         <v>7.515789473684209E-2</v>
       </c>
-      <c r="E38" s="4">
+      <c r="D37" s="2">
         <v>4.2549019607843137</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="4">
+      <c r="E37" s="2">
         <v>5.842105263157895E-2</v>
       </c>
-      <c r="H38" s="4">
+      <c r="F37" s="2">
         <v>4.1450980392156866</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
         <v>4.7052631578947367E-2</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B38" s="2">
         <v>3.7882352941176469</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="4">
+      <c r="C38" s="2">
         <v>7.515789473684209E-2</v>
       </c>
-      <c r="E39" s="4">
+      <c r="D38" s="2">
         <v>4.1176470588235299</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="4">
+      <c r="E38" s="2">
         <v>0.06</v>
       </c>
-      <c r="H39" s="4">
+      <c r="F38" s="2">
         <v>4.2274509803921569</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
         <v>4.8315789473684208E-2</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B39" s="2">
         <v>3.8431372549019613</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="4">
+      <c r="C39" s="2">
         <v>7.515789473684209E-2</v>
       </c>
-      <c r="E40" s="4">
+      <c r="D39" s="2">
         <v>4.3372549019607849</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="4">
+      <c r="E39" s="2">
         <v>6.1894736842105266E-2</v>
       </c>
-      <c r="H40" s="4">
+      <c r="F39" s="2">
         <v>4.3372549019607849</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
         <v>4.9894736842105263E-2</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B40" s="2">
         <v>3.9254901960784316</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="4">
+      <c r="C40" s="2">
         <v>8.0842105263157896E-2</v>
       </c>
-      <c r="E41" s="4">
+      <c r="D40" s="2">
         <v>4.447058823529412</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="4">
+      <c r="E40" s="2">
         <v>6.2842105263157894E-2</v>
       </c>
-      <c r="H41" s="4">
+      <c r="F40" s="2">
         <v>4.3647058823529417</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
         <v>5.084210526315789E-2</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B41" s="2">
         <v>3.8980392156862749</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="4">
+      <c r="C41" s="2">
         <v>8.1473684210526309E-2</v>
       </c>
-      <c r="E42" s="4">
+      <c r="D41" s="2">
         <v>4.3921568627450984</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="4">
+      <c r="E41" s="2">
         <v>6.3473684210526307E-2</v>
       </c>
-      <c r="H42" s="4">
+      <c r="F41" s="2">
         <v>4.2274509803921569</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
         <v>5.2105263157894738E-2</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B42" s="2">
         <v>3.9803921568627452</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="4">
+      <c r="C42" s="2">
         <v>8.3368421052631578E-2</v>
       </c>
-      <c r="E43" s="4">
+      <c r="D42" s="2">
         <v>4.5019607843137255</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="4">
+      <c r="E42" s="2">
         <v>6.6315789473684217E-2</v>
       </c>
-      <c r="H43" s="4">
+      <c r="F42" s="2">
         <v>4.3921568627450984</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B43" s="2">
         <v>3.9529411764705884</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="4">
+      <c r="C43" s="2">
         <v>8.8105263157894728E-2</v>
       </c>
-      <c r="E44" s="4">
+      <c r="D43" s="2">
         <v>4.6117647058823525</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="4">
+      <c r="E43" s="2">
         <v>6.7894736842105258E-2</v>
       </c>
-      <c r="H44" s="4">
+      <c r="F43" s="2">
         <v>4.3647058823529417</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
         <v>5.5578947368421047E-2</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B44" s="2">
         <v>4.0627450980392164</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="4">
+      <c r="C44" s="2">
         <v>8.9684210526315783E-2</v>
       </c>
-      <c r="E45" s="4">
+      <c r="D44" s="2">
         <v>4.5294117647058822</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="4">
+      <c r="E44" s="2">
         <v>7.2315789473684208E-2</v>
       </c>
-      <c r="H45" s="4">
+      <c r="F44" s="2">
         <v>4.4745098039215687</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
         <v>5.7473684210526316E-2</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B45" s="2">
         <v>4.0078431372549019</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="4">
+      <c r="C45" s="2">
         <v>9.0947368421052638E-2</v>
       </c>
-      <c r="E46" s="4">
+      <c r="D45" s="2">
         <v>4.6392156862745093</v>
       </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="4">
+      <c r="E45" s="2">
         <v>7.5789473684210518E-2</v>
       </c>
-      <c r="H46" s="4">
+      <c r="F45" s="2">
         <v>4.5843137254901958</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
         <v>6.1263157894736846E-2</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B46" s="2">
         <v>4.1725490196078434</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="4">
+      <c r="C46" s="2">
         <v>9.1894736842105265E-2</v>
       </c>
-      <c r="E47" s="4">
+      <c r="D46" s="2">
         <v>4.556862745098039</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="4">
+      <c r="E46" s="2">
         <v>8.1473684210526309E-2</v>
       </c>
-      <c r="H47" s="4">
+      <c r="F46" s="2">
         <v>4.6941176470588228</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
         <v>6.4421052631578948E-2</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B47" s="2">
         <v>4.1725490196078434</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="4">
+      <c r="C47" s="2">
         <v>9.5052631578947361E-2</v>
       </c>
-      <c r="E48" s="4">
+      <c r="D47" s="2">
         <v>4.6666666666666661</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="4">
+      <c r="E47" s="2">
         <v>8.6842105263157901E-2</v>
       </c>
-      <c r="H48" s="4">
+      <c r="F47" s="2">
         <v>4.776470588235294</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
         <v>6.726315789473683E-2</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B48" s="2">
         <v>4.2823529411764714</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="4">
+      <c r="C48" s="2">
         <v>9.9157894736842098E-2</v>
       </c>
-      <c r="E49" s="4">
+      <c r="D48" s="2">
         <v>4.7490196078431373</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="4">
+      <c r="E48" s="2">
         <v>8.9368421052631569E-2</v>
       </c>
-      <c r="H49" s="4">
+      <c r="F48" s="2">
         <v>4.776470588235294</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
         <v>7.0421052631578954E-2</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B49" s="2">
         <v>4.3647058823529417</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="4">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="2">
         <v>9.1578947368421051E-2</v>
       </c>
-      <c r="H50" s="4">
+      <c r="F49" s="2">
         <v>4.8313725490196076</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B50" s="2">
         <v>4.3372549019607849</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="4">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="2">
         <v>9.4421052631578947E-2</v>
       </c>
-      <c r="H51" s="4">
+      <c r="F50" s="2">
         <v>4.8588235294117643</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
         <v>7.4210526315789477E-2</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B51" s="2">
         <v>4.447058823529412</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="4">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
         <v>7.7368421052631572E-2</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B52" s="2">
         <v>4.5019607843137255</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="4">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
         <v>7.9894736842105255E-2</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B53" s="2">
         <v>4.5843137254901958</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="4">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
         <v>8.242105263157895E-2</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B54" s="2">
         <v>4.5843137254901958</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="4">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
         <v>8.7789473684210528E-2</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B55" s="2">
         <v>4.6941176470588228</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
